--- a/starting with data/excel files/their_data.xlsx
+++ b/starting with data/excel files/their_data.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/jy1_mail_tau_ac_il/Documents/Desktop/אוניברסיטה/אסטרו נודר/פרויקט קיץ/התחלה של קוד/astro_summer_project/starting with data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/jy1_mail_tau_ac_il/Documents/Desktop/אוניברסיטה/אסטרו נודר/פרויקט קיץ/התחלה של קוד/astro_summer_project/starting with data/excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE6CEE4C-574A-4094-915E-D6D714584A49}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{929C4B7A-6C9A-4CF6-90A6-5436C43B5C3C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="after beaning" sheetId="1" r:id="rId1"/>
     <sheet name="raw data" sheetId="2" r:id="rId2"/>
     <sheet name="no beaning" sheetId="3" r:id="rId3"/>
+    <sheet name="pros data all" sheetId="4" r:id="rId4"/>
+    <sheet name="the graph data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="288">
   <si>
     <t>Image number</t>
   </si>
@@ -910,7 +912,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,12 +933,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="177"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1337,7 +1333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1859,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0505C6EC-8959-4512-9AB0-5FB33F120081}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4074,10 +4072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17755A5D-8192-4EAC-BA1F-7BB145CE0EFA}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5952,8 +5950,4417 @@
         <v>281</v>
       </c>
     </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.75077545999999995</v>
+      </c>
+      <c r="C98" s="2">
+        <v>20</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.75103008999999998</v>
+      </c>
+      <c r="C99" s="2">
+        <v>20</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA280E6-8488-4518-84BE-84ACD5E49096}">
+  <dimension ref="A1:I114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.69693183999999997</v>
+      </c>
+      <c r="C2">
+        <v>800</v>
+      </c>
+      <c r="D2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.93</v>
+      </c>
+      <c r="G2">
+        <v>0.13</v>
+      </c>
+      <c r="H2">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="I2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.69085648</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.77</v>
+      </c>
+      <c r="G3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.69115740999999997</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.7</v>
+      </c>
+      <c r="G4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.69143518999999998</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.74</v>
+      </c>
+      <c r="G5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.69172454000000005</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.69200231000000001</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2.02</v>
+      </c>
+      <c r="G7">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.69229167000000003</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.69</v>
+      </c>
+      <c r="G8">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.69256943999999998</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2.13</v>
+      </c>
+      <c r="G9">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.6928588</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2.31</v>
+      </c>
+      <c r="G10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.69314814999999996</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.96</v>
+      </c>
+      <c r="G11">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.69351852000000003</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.96</v>
+      </c>
+      <c r="G12">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.69387730999999997</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1.74</v>
+      </c>
+      <c r="G13">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.69416666999999999</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2.68</v>
+      </c>
+      <c r="G14">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.69445601999999995</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.69474537000000003</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.84</v>
+      </c>
+      <c r="G16">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.69504630000000001</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2.16</v>
+      </c>
+      <c r="G17">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.69534722000000004</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.81</v>
+      </c>
+      <c r="G18">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.69563657000000001</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1.89</v>
+      </c>
+      <c r="G19">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.69592593000000003</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.92</v>
+      </c>
+      <c r="G20">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.69621527999999999</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.69649306</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2.41</v>
+      </c>
+      <c r="G22">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.69678240999999996</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G23">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.69734954000000005</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.69769676000000003</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1.67</v>
+      </c>
+      <c r="G25">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.69798610999999999</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2.1</v>
+      </c>
+      <c r="G26">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.69827545999999996</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G27">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.69856481000000004</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.69884259000000004</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G29">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.69913194000000001</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.69942130000000002</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2.25</v>
+      </c>
+      <c r="G31">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.69987268999999996</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2.35</v>
+      </c>
+      <c r="G32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.70018519000000001</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1.53</v>
+      </c>
+      <c r="G33">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.70049768000000001</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1.8</v>
+      </c>
+      <c r="G34">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.70121528</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1.97</v>
+      </c>
+      <c r="G35">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.70171296000000005</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G36">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.70200231000000002</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2.29</v>
+      </c>
+      <c r="G37">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.70228009000000002</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1.64</v>
+      </c>
+      <c r="G38">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.70256943999999999</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1.71</v>
+      </c>
+      <c r="G39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.70285880000000001</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1.82</v>
+      </c>
+      <c r="G40">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.70313656999999996</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2.44</v>
+      </c>
+      <c r="G41">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.70342592999999998</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2.12</v>
+      </c>
+      <c r="G42">
+        <v>0.37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>0.7361548</v>
+      </c>
+      <c r="C43">
+        <v>340</v>
+      </c>
+      <c r="D43">
+        <v>19.03</v>
+      </c>
+      <c r="E43">
+        <v>0.08</v>
+      </c>
+      <c r="F43">
+        <v>1.61</v>
+      </c>
+      <c r="G43">
+        <v>0.09</v>
+      </c>
+      <c r="H43">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="I43">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>0.73452949000000001</v>
+      </c>
+      <c r="C44">
+        <v>120</v>
+      </c>
+      <c r="D44">
+        <v>19.11</v>
+      </c>
+      <c r="E44">
+        <v>0.13</v>
+      </c>
+      <c r="F44">
+        <v>1.59</v>
+      </c>
+      <c r="G44">
+        <v>0.1</v>
+      </c>
+      <c r="H44">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="I44">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>0.73629635999999998</v>
+      </c>
+      <c r="C45">
+        <v>120</v>
+      </c>
+      <c r="D45">
+        <v>19.02</v>
+      </c>
+      <c r="E45">
+        <v>0.13</v>
+      </c>
+      <c r="F45">
+        <v>1.67</v>
+      </c>
+      <c r="G45">
+        <v>0.15</v>
+      </c>
+      <c r="H45">
+        <v>1.22</v>
+      </c>
+      <c r="I45">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>0.73793518000000002</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>18.98</v>
+      </c>
+      <c r="E46">
+        <v>0.12</v>
+      </c>
+      <c r="F46">
+        <v>1.57</v>
+      </c>
+      <c r="G46">
+        <v>0.12</v>
+      </c>
+      <c r="H46">
+        <v>1.222</v>
+      </c>
+      <c r="I46">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>0.73376156999999997</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>18.95</v>
+      </c>
+      <c r="E47">
+        <v>0.39</v>
+      </c>
+      <c r="F47">
+        <v>1.71</v>
+      </c>
+      <c r="G47">
+        <v>0.2</v>
+      </c>
+      <c r="H47">
+        <v>1.244</v>
+      </c>
+      <c r="I47">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>0.73410880000000001</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>19.55</v>
+      </c>
+      <c r="E48">
+        <v>0.36</v>
+      </c>
+      <c r="F48">
+        <v>2.21</v>
+      </c>
+      <c r="G48">
+        <v>0.24</v>
+      </c>
+      <c r="H48">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="I48">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>0.73439814999999997</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>18.95</v>
+      </c>
+      <c r="E49">
+        <v>0.19</v>
+      </c>
+      <c r="F49">
+        <v>1.53</v>
+      </c>
+      <c r="G49">
+        <v>0.35</v>
+      </c>
+      <c r="H49">
+        <v>1.248</v>
+      </c>
+      <c r="I49">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>0.73468750000000005</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>18.77</v>
+      </c>
+      <c r="E50">
+        <v>0.26</v>
+      </c>
+      <c r="F50">
+        <v>1.53</v>
+      </c>
+      <c r="G50">
+        <v>0.21</v>
+      </c>
+      <c r="H50">
+        <v>1.22</v>
+      </c>
+      <c r="I50">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>0.73496528000000005</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="E51">
+        <v>0.38</v>
+      </c>
+      <c r="F51">
+        <v>1.67</v>
+      </c>
+      <c r="G51">
+        <v>0.38</v>
+      </c>
+      <c r="H51">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="I51">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <v>0.73525463000000002</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>19.41</v>
+      </c>
+      <c r="E52">
+        <v>0.42</v>
+      </c>
+      <c r="F52">
+        <v>1.56</v>
+      </c>
+      <c r="G52">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H52">
+        <v>1.238</v>
+      </c>
+      <c r="I52">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53">
+        <v>0.73554397999999999</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="E53">
+        <v>0.31</v>
+      </c>
+      <c r="F53">
+        <v>2.13</v>
+      </c>
+      <c r="G53">
+        <v>0.46</v>
+      </c>
+      <c r="H53">
+        <v>1.165</v>
+      </c>
+      <c r="I53">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <v>0.73585648000000003</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="E54">
+        <v>0.41</v>
+      </c>
+      <c r="F54">
+        <v>1.53</v>
+      </c>
+      <c r="G54">
+        <v>0.52</v>
+      </c>
+      <c r="H54">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="I54">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <v>0.73614583</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>19.14</v>
+      </c>
+      <c r="E55">
+        <v>0.33</v>
+      </c>
+      <c r="F55">
+        <v>1.71</v>
+      </c>
+      <c r="G55">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H55">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="I55">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <v>0.73644675999999998</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>18.45</v>
+      </c>
+      <c r="E56">
+        <v>0.12</v>
+      </c>
+      <c r="F56">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G56">
+        <v>0.27</v>
+      </c>
+      <c r="H56">
+        <v>1.274</v>
+      </c>
+      <c r="I56">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57">
+        <v>0.73673611000000006</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E57">
+        <v>0.39</v>
+      </c>
+      <c r="F57">
+        <v>1.84</v>
+      </c>
+      <c r="G57">
+        <v>0.43</v>
+      </c>
+      <c r="H57">
+        <v>1.208</v>
+      </c>
+      <c r="I57">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58">
+        <v>0.73704860999999999</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>19.59</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
+        <v>1.64</v>
+      </c>
+      <c r="G58">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H58">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="I58">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <v>0.73734953999999997</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="E59">
+        <v>0.24</v>
+      </c>
+      <c r="F59">
+        <v>1.52</v>
+      </c>
+      <c r="G59">
+        <v>0.27</v>
+      </c>
+      <c r="H59">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="I59">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60">
+        <v>0.73765046000000001</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>19.23</v>
+      </c>
+      <c r="E60">
+        <v>0.3</v>
+      </c>
+      <c r="F60">
+        <v>1.77</v>
+      </c>
+      <c r="G60">
+        <v>0.23</v>
+      </c>
+      <c r="H60">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="I60">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>0.73793982000000002</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="E61">
+        <v>0.2</v>
+      </c>
+      <c r="F61">
+        <v>1.63</v>
+      </c>
+      <c r="G61">
+        <v>0.51</v>
+      </c>
+      <c r="H61">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="I61">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <v>0.73822916999999999</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>19.02</v>
+      </c>
+      <c r="E62">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F62">
+        <v>1.58</v>
+      </c>
+      <c r="G62">
+        <v>0.42</v>
+      </c>
+      <c r="H62">
+        <v>1.218</v>
+      </c>
+      <c r="I62">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <v>0.73850693999999995</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E63">
+        <v>0.25</v>
+      </c>
+      <c r="F63">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G63">
+        <v>0.3</v>
+      </c>
+      <c r="H63">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="I63">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64">
+        <v>0.74201744999999997</v>
+      </c>
+      <c r="C64">
+        <v>400</v>
+      </c>
+      <c r="D64">
+        <v>18.82</v>
+      </c>
+      <c r="E64">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F64">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G64">
+        <v>0.1</v>
+      </c>
+      <c r="H64">
+        <v>2.7869999999999999</v>
+      </c>
+      <c r="I64">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>0.73999994999999996</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65">
+        <v>18.75</v>
+      </c>
+      <c r="E65">
+        <v>0.12</v>
+      </c>
+      <c r="F65">
+        <v>1.85</v>
+      </c>
+      <c r="G65">
+        <v>0.12</v>
+      </c>
+      <c r="H65">
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="I65">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>0.74130099999999999</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <v>18.75</v>
+      </c>
+      <c r="E66">
+        <v>0.08</v>
+      </c>
+      <c r="F66">
+        <v>2.12</v>
+      </c>
+      <c r="G66">
+        <v>0.09</v>
+      </c>
+      <c r="H66">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="I66">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>0.74262035000000004</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <v>18.79</v>
+      </c>
+      <c r="E67">
+        <v>0.1</v>
+      </c>
+      <c r="F67">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G67">
+        <v>0.11</v>
+      </c>
+      <c r="H67">
+        <v>2.8</v>
+      </c>
+      <c r="I67">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <v>0.74414860999999999</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68">
+        <v>18.79</v>
+      </c>
+      <c r="E68">
+        <v>0.15</v>
+      </c>
+      <c r="F68">
+        <v>2.09</v>
+      </c>
+      <c r="G68">
+        <v>0.12</v>
+      </c>
+      <c r="H68">
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="I68">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>58</v>
+      </c>
+      <c r="B69">
+        <v>0.73947916999999996</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>18.59</v>
+      </c>
+      <c r="E69">
+        <v>0.26</v>
+      </c>
+      <c r="F69">
+        <v>1.66</v>
+      </c>
+      <c r="G69">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H69">
+        <v>2.762</v>
+      </c>
+      <c r="I69">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>59</v>
+      </c>
+      <c r="B70">
+        <v>0.73974536999999996</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>18.93</v>
+      </c>
+      <c r="E70">
+        <v>0.21</v>
+      </c>
+      <c r="F70">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G70">
+        <v>0.11</v>
+      </c>
+      <c r="H70">
+        <v>2.7850000000000001</v>
+      </c>
+      <c r="I70">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>60</v>
+      </c>
+      <c r="B71">
+        <v>0.74</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>18.82</v>
+      </c>
+      <c r="E71">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F71">
+        <v>1.91</v>
+      </c>
+      <c r="G71">
+        <v>0.12</v>
+      </c>
+      <c r="H71">
+        <v>2.827</v>
+      </c>
+      <c r="I71">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>61</v>
+      </c>
+      <c r="B72">
+        <v>0.74025463000000002</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>19.2</v>
+      </c>
+      <c r="E72">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F72">
+        <v>1.95</v>
+      </c>
+      <c r="G72">
+        <v>0.16</v>
+      </c>
+      <c r="H72">
+        <v>2.8029999999999999</v>
+      </c>
+      <c r="I72">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>62</v>
+      </c>
+      <c r="B73">
+        <v>0.74052083000000002</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>18.53</v>
+      </c>
+      <c r="E73">
+        <v>0.2</v>
+      </c>
+      <c r="F73">
+        <v>1.79</v>
+      </c>
+      <c r="G73">
+        <v>0.15</v>
+      </c>
+      <c r="H73">
+        <v>2.786</v>
+      </c>
+      <c r="I73">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>63</v>
+      </c>
+      <c r="B74">
+        <v>0.74077546000000005</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>19.05</v>
+      </c>
+      <c r="E74">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F74">
+        <v>2.54</v>
+      </c>
+      <c r="G74">
+        <v>0.11</v>
+      </c>
+      <c r="H74">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="I74">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>64</v>
+      </c>
+      <c r="B75">
+        <v>0.74104166999999999</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="E75">
+        <v>0.16</v>
+      </c>
+      <c r="F75">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G75">
+        <v>0.15</v>
+      </c>
+      <c r="H75">
+        <v>2.9289999999999998</v>
+      </c>
+      <c r="I75">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>65</v>
+      </c>
+      <c r="B76">
+        <v>0.74129630000000002</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="E76">
+        <v>0.23</v>
+      </c>
+      <c r="F76">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G76">
+        <v>0.1</v>
+      </c>
+      <c r="H76">
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="I76">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>66</v>
+      </c>
+      <c r="B77">
+        <v>0.74156250000000001</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>18.52</v>
+      </c>
+      <c r="E77">
+        <v>0.15</v>
+      </c>
+      <c r="F77">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G77">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H77">
+        <v>2.7719999999999998</v>
+      </c>
+      <c r="I77">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>67</v>
+      </c>
+      <c r="B78">
+        <v>0.74182870000000001</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>19.04</v>
+      </c>
+      <c r="E78">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F78">
+        <v>1.93</v>
+      </c>
+      <c r="G78">
+        <v>0.12</v>
+      </c>
+      <c r="H78">
+        <v>2.7890000000000001</v>
+      </c>
+      <c r="I78">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>68</v>
+      </c>
+      <c r="B79">
+        <v>0.74208333000000004</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>18.46</v>
+      </c>
+      <c r="E79">
+        <v>0.16</v>
+      </c>
+      <c r="F79">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G79">
+        <v>0.08</v>
+      </c>
+      <c r="H79">
+        <v>2.87</v>
+      </c>
+      <c r="I79">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>69</v>
+      </c>
+      <c r="B80">
+        <v>0.74234953999999997</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>19.88</v>
+      </c>
+      <c r="E80">
+        <v>0.49</v>
+      </c>
+      <c r="F80">
+        <v>2.38</v>
+      </c>
+      <c r="G80">
+        <v>0.27</v>
+      </c>
+      <c r="H80">
+        <v>2.8879999999999999</v>
+      </c>
+      <c r="I80">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>70</v>
+      </c>
+      <c r="B81">
+        <v>0.74261573999999997</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>19.32</v>
+      </c>
+      <c r="E81">
+        <v>0.35</v>
+      </c>
+      <c r="F81">
+        <v>2.08</v>
+      </c>
+      <c r="G81">
+        <v>0.11</v>
+      </c>
+      <c r="H81">
+        <v>2.8069999999999999</v>
+      </c>
+      <c r="I81">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>71</v>
+      </c>
+      <c r="B82">
+        <v>0.74287037</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>18.71</v>
+      </c>
+      <c r="E82">
+        <v>0.21</v>
+      </c>
+      <c r="F82">
+        <v>1.85</v>
+      </c>
+      <c r="G82">
+        <v>0.13</v>
+      </c>
+      <c r="H82">
+        <v>2.746</v>
+      </c>
+      <c r="I82">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>72</v>
+      </c>
+      <c r="B83">
+        <v>0.74318287000000005</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="E83">
+        <v>0.22</v>
+      </c>
+      <c r="F83">
+        <v>2.41</v>
+      </c>
+      <c r="G83">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H83">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="I83">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>73</v>
+      </c>
+      <c r="B84">
+        <v>0.74351851999999996</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="E84">
+        <v>0.27</v>
+      </c>
+      <c r="F84">
+        <v>1.82</v>
+      </c>
+      <c r="G84">
+        <v>0.17</v>
+      </c>
+      <c r="H84">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="I84">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>74</v>
+      </c>
+      <c r="B85">
+        <v>0.74384258999999997</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="E85">
+        <v>0.2</v>
+      </c>
+      <c r="F85">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G85">
+        <v>0.11</v>
+      </c>
+      <c r="H85">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="I85">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>75</v>
+      </c>
+      <c r="B86">
+        <v>0.74414351999999995</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>19.04</v>
+      </c>
+      <c r="E86">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F86">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G86">
+        <v>0.18</v>
+      </c>
+      <c r="H86">
+        <v>2.9540000000000002</v>
+      </c>
+      <c r="I86">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>76</v>
+      </c>
+      <c r="B87">
+        <v>0.74446758999999996</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>18.63</v>
+      </c>
+      <c r="E87">
+        <v>0.3</v>
+      </c>
+      <c r="F87">
+        <v>2.82</v>
+      </c>
+      <c r="G87">
+        <v>0.44</v>
+      </c>
+      <c r="H87">
+        <v>3.0710000000000002</v>
+      </c>
+      <c r="I87">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>77</v>
+      </c>
+      <c r="B88">
+        <v>0.74476852000000004</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="E88">
+        <v>0.2</v>
+      </c>
+      <c r="F88">
+        <v>2.1</v>
+      </c>
+      <c r="G88">
+        <v>0.15</v>
+      </c>
+      <c r="H88">
+        <v>2.7490000000000001</v>
+      </c>
+      <c r="I88">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89">
+        <v>0.74817347000000001</v>
+      </c>
+      <c r="C89">
+        <v>420</v>
+      </c>
+      <c r="D89">
+        <v>18.48</v>
+      </c>
+      <c r="E89">
+        <v>0.05</v>
+      </c>
+      <c r="F89">
+        <v>2.06</v>
+      </c>
+      <c r="G89">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H89">
+        <v>2.78</v>
+      </c>
+      <c r="I89">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90">
+        <v>0.74595498999999998</v>
+      </c>
+      <c r="C90">
+        <v>120</v>
+      </c>
+      <c r="D90">
+        <v>18.46</v>
+      </c>
+      <c r="E90">
+        <v>0.08</v>
+      </c>
+      <c r="F90">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G90">
+        <v>0.08</v>
+      </c>
+      <c r="H90">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="I90">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91">
+        <v>0.74763661999999997</v>
+      </c>
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E91">
+        <v>0.09</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>0.08</v>
+      </c>
+      <c r="H91">
+        <v>2.8140000000000001</v>
+      </c>
+      <c r="I91">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92">
+        <v>0.74904883</v>
+      </c>
+      <c r="C92">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <v>18.55</v>
+      </c>
+      <c r="E92">
+        <v>0.09</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>0.06</v>
+      </c>
+      <c r="H92">
+        <v>2.78</v>
+      </c>
+      <c r="I92">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93">
+        <v>0.75049745999999995</v>
+      </c>
+      <c r="C93">
+        <v>100</v>
+      </c>
+      <c r="D93">
+        <v>18.34</v>
+      </c>
+      <c r="E93">
+        <v>0.08</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H93">
+        <v>2.7829999999999999</v>
+      </c>
+      <c r="I93">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>78</v>
+      </c>
+      <c r="B94">
+        <v>0.74512730999999999</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>18.7</v>
+      </c>
+      <c r="E94">
+        <v>0.19</v>
+      </c>
+      <c r="F94">
+        <v>2.06</v>
+      </c>
+      <c r="G94">
+        <v>0.1</v>
+      </c>
+      <c r="H94">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="I94">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>79</v>
+      </c>
+      <c r="B95">
+        <v>0.74550925999999995</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95">
+        <v>18.39</v>
+      </c>
+      <c r="E95">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F95">
+        <v>2.48</v>
+      </c>
+      <c r="G95">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H95">
+        <v>2.8660000000000001</v>
+      </c>
+      <c r="I95">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>80</v>
+      </c>
+      <c r="B96">
+        <v>0.74582176</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>18.8</v>
+      </c>
+      <c r="E96">
+        <v>0.31</v>
+      </c>
+      <c r="F96">
+        <v>2.35</v>
+      </c>
+      <c r="G96">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H96">
+        <v>2.9529999999999998</v>
+      </c>
+      <c r="I96">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>81</v>
+      </c>
+      <c r="B97">
+        <v>0.74612268999999998</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="E97">
+        <v>0.35</v>
+      </c>
+      <c r="F97">
+        <v>2.89</v>
+      </c>
+      <c r="G97">
+        <v>0.44</v>
+      </c>
+      <c r="H97">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="I97">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>82</v>
+      </c>
+      <c r="B98">
+        <v>0.74642361000000002</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>18.11</v>
+      </c>
+      <c r="E98">
+        <v>0.15</v>
+      </c>
+      <c r="F98">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G98">
+        <v>0.1</v>
+      </c>
+      <c r="H98">
+        <v>2.77</v>
+      </c>
+      <c r="I98">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>83</v>
+      </c>
+      <c r="B99">
+        <v>0.74672453999999999</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>18.47</v>
+      </c>
+      <c r="E99">
+        <v>0.17</v>
+      </c>
+      <c r="F99">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G99">
+        <v>0.15</v>
+      </c>
+      <c r="H99">
+        <v>2.7410000000000001</v>
+      </c>
+      <c r="I99">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>84</v>
+      </c>
+      <c r="B100">
+        <v>0.74706019000000001</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>18.43</v>
+      </c>
+      <c r="E100">
+        <v>0.18</v>
+      </c>
+      <c r="F100">
+        <v>2.12</v>
+      </c>
+      <c r="G100">
+        <v>0.12</v>
+      </c>
+      <c r="H100">
+        <v>2.77</v>
+      </c>
+      <c r="I100">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>85</v>
+      </c>
+      <c r="B101">
+        <v>0.74737268999999995</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="E101">
+        <v>0.16</v>
+      </c>
+      <c r="F101">
+        <v>1.97</v>
+      </c>
+      <c r="G101">
+        <v>0.09</v>
+      </c>
+      <c r="H101">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="I101">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>86</v>
+      </c>
+      <c r="B102">
+        <v>0.74765046000000002</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>18.84</v>
+      </c>
+      <c r="E102">
+        <v>0.31</v>
+      </c>
+      <c r="F102">
+        <v>1.97</v>
+      </c>
+      <c r="G102">
+        <v>0.15</v>
+      </c>
+      <c r="H102">
+        <v>2.7690000000000001</v>
+      </c>
+      <c r="I102">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>87</v>
+      </c>
+      <c r="B103">
+        <v>0.74791666999999995</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="D103">
+        <v>18.55</v>
+      </c>
+      <c r="E103">
+        <v>0.15</v>
+      </c>
+      <c r="F103">
+        <v>2.81</v>
+      </c>
+      <c r="G103">
+        <v>0.3</v>
+      </c>
+      <c r="H103">
+        <v>2.9790000000000001</v>
+      </c>
+      <c r="I103">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>88</v>
+      </c>
+      <c r="B104">
+        <v>0.74818287000000006</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>18.43</v>
+      </c>
+      <c r="E104">
+        <v>0.15</v>
+      </c>
+      <c r="F104">
+        <v>1.78</v>
+      </c>
+      <c r="G104">
+        <v>0.16</v>
+      </c>
+      <c r="H104">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="I104">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>89</v>
+      </c>
+      <c r="B105">
+        <v>0.74843749999999998</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>18.63</v>
+      </c>
+      <c r="E105">
+        <v>0.16</v>
+      </c>
+      <c r="F105">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G105">
+        <v>0.09</v>
+      </c>
+      <c r="H105">
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="I105">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>90</v>
+      </c>
+      <c r="B106">
+        <v>0.74870369999999997</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+      <c r="D106">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="E106">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F106">
+        <v>1.9</v>
+      </c>
+      <c r="G106">
+        <v>0.1</v>
+      </c>
+      <c r="H106">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="I106">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>91</v>
+      </c>
+      <c r="B107">
+        <v>0.74906249999999996</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107">
+        <v>18.62</v>
+      </c>
+      <c r="E107">
+        <v>0.17</v>
+      </c>
+      <c r="F107">
+        <v>2.38</v>
+      </c>
+      <c r="G107">
+        <v>1.28</v>
+      </c>
+      <c r="H107">
+        <v>2.6589999999999998</v>
+      </c>
+      <c r="I107">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>92</v>
+      </c>
+      <c r="B108">
+        <v>0.74938656999999997</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="E108">
+        <v>0.13</v>
+      </c>
+      <c r="F108">
+        <v>2.17</v>
+      </c>
+      <c r="G108">
+        <v>0.11</v>
+      </c>
+      <c r="H108">
+        <v>2.8170000000000002</v>
+      </c>
+      <c r="I108">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>93</v>
+      </c>
+      <c r="B109">
+        <v>0.74965278000000002</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="D109">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="E109">
+        <v>0.31</v>
+      </c>
+      <c r="F109">
+        <v>2.14</v>
+      </c>
+      <c r="G109">
+        <v>1.17</v>
+      </c>
+      <c r="H109">
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="I109">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>94</v>
+      </c>
+      <c r="B110">
+        <v>0.74994212999999998</v>
+      </c>
+      <c r="C110">
+        <v>20</v>
+      </c>
+      <c r="D110">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="E110">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F110">
+        <v>2.1</v>
+      </c>
+      <c r="G110">
+        <v>0.11</v>
+      </c>
+      <c r="H110">
+        <v>2.726</v>
+      </c>
+      <c r="I110">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>95</v>
+      </c>
+      <c r="B111">
+        <v>0.75023147999999995</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>18.43</v>
+      </c>
+      <c r="E111">
+        <v>0.18</v>
+      </c>
+      <c r="F111">
+        <v>2.61</v>
+      </c>
+      <c r="G111">
+        <v>0.15</v>
+      </c>
+      <c r="H111">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="I111">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>96</v>
+      </c>
+      <c r="B112">
+        <v>0.75050925999999996</v>
+      </c>
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>18.23</v>
+      </c>
+      <c r="E112">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F112">
+        <v>1.92</v>
+      </c>
+      <c r="G112">
+        <v>0.15</v>
+      </c>
+      <c r="H112">
+        <v>2.7069999999999999</v>
+      </c>
+      <c r="I112">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>97</v>
+      </c>
+      <c r="B113">
+        <v>0.75077545999999995</v>
+      </c>
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="E113">
+        <v>0.15</v>
+      </c>
+      <c r="F113">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G113">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H113">
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="I113">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>98</v>
+      </c>
+      <c r="B114">
+        <v>0.75103008999999998</v>
+      </c>
+      <c r="C114">
+        <v>20</v>
+      </c>
+      <c r="D114">
+        <v>18.32</v>
+      </c>
+      <c r="E114">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F114">
+        <v>1.83</v>
+      </c>
+      <c r="G114">
+        <v>0.17</v>
+      </c>
+      <c r="H114">
+        <v>2.722</v>
+      </c>
+      <c r="I114">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E784F8B6-D0C0-4E55-9E71-D0B5243C9B85}">
+  <dimension ref="A1:C114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.69693183999999997</v>
+      </c>
+      <c r="B2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.69085648</v>
+      </c>
+      <c r="B3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.69115740999999997</v>
+      </c>
+      <c r="B4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.69143518999999998</v>
+      </c>
+      <c r="B5">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.69172454000000005</v>
+      </c>
+      <c r="B6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.69200231000000001</v>
+      </c>
+      <c r="B7">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.69229167000000003</v>
+      </c>
+      <c r="B8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.69256943999999998</v>
+      </c>
+      <c r="B9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.6928588</v>
+      </c>
+      <c r="B10">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.69314814999999996</v>
+      </c>
+      <c r="B11">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.69351852000000003</v>
+      </c>
+      <c r="B12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.69387730999999997</v>
+      </c>
+      <c r="B13">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.69416666999999999</v>
+      </c>
+      <c r="B14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.69445601999999995</v>
+      </c>
+      <c r="B15">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.69474537000000003</v>
+      </c>
+      <c r="B16">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.69504630000000001</v>
+      </c>
+      <c r="B17">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.69534722000000004</v>
+      </c>
+      <c r="B18">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.69563657000000001</v>
+      </c>
+      <c r="B19">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.69592593000000003</v>
+      </c>
+      <c r="B20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.69621527999999999</v>
+      </c>
+      <c r="B21">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.69649306</v>
+      </c>
+      <c r="B22">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.69678240999999996</v>
+      </c>
+      <c r="B23">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.69734954000000005</v>
+      </c>
+      <c r="B24">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.69769676000000003</v>
+      </c>
+      <c r="B25">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.69798610999999999</v>
+      </c>
+      <c r="B26">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.69827545999999996</v>
+      </c>
+      <c r="B27">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.69856481000000004</v>
+      </c>
+      <c r="B28">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.69884259000000004</v>
+      </c>
+      <c r="B29">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.69913194000000001</v>
+      </c>
+      <c r="B30">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.69942130000000002</v>
+      </c>
+      <c r="B31">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.69987268999999996</v>
+      </c>
+      <c r="B32">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.70018519000000001</v>
+      </c>
+      <c r="B33">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.70049768000000001</v>
+      </c>
+      <c r="B34">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.70121528</v>
+      </c>
+      <c r="B35">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.70171296000000005</v>
+      </c>
+      <c r="B36">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.70200231000000002</v>
+      </c>
+      <c r="B37">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.70228009000000002</v>
+      </c>
+      <c r="B38">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.70256943999999999</v>
+      </c>
+      <c r="B39">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.70285880000000001</v>
+      </c>
+      <c r="B40">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.70313656999999996</v>
+      </c>
+      <c r="B41">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.70342592999999998</v>
+      </c>
+      <c r="B42">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.7361548</v>
+      </c>
+      <c r="B43">
+        <v>19.03</v>
+      </c>
+      <c r="C43">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.73452949000000001</v>
+      </c>
+      <c r="B44">
+        <v>19.11</v>
+      </c>
+      <c r="C44">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.73629635999999998</v>
+      </c>
+      <c r="B45">
+        <v>19.02</v>
+      </c>
+      <c r="C45">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.73793518000000002</v>
+      </c>
+      <c r="B46">
+        <v>18.98</v>
+      </c>
+      <c r="C46">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.73376156999999997</v>
+      </c>
+      <c r="B47">
+        <v>18.95</v>
+      </c>
+      <c r="C47">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.73410880000000001</v>
+      </c>
+      <c r="B48">
+        <v>19.55</v>
+      </c>
+      <c r="C48">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.73439814999999997</v>
+      </c>
+      <c r="B49">
+        <v>18.95</v>
+      </c>
+      <c r="C49">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.73468750000000005</v>
+      </c>
+      <c r="B50">
+        <v>18.77</v>
+      </c>
+      <c r="C50">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.73496528000000005</v>
+      </c>
+      <c r="B51">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="C51">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.73525463000000002</v>
+      </c>
+      <c r="B52">
+        <v>19.41</v>
+      </c>
+      <c r="C52">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.73554397999999999</v>
+      </c>
+      <c r="B53">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="C53">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.73585648000000003</v>
+      </c>
+      <c r="B54">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="C54">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.73614583</v>
+      </c>
+      <c r="B55">
+        <v>19.14</v>
+      </c>
+      <c r="C55">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.73644675999999998</v>
+      </c>
+      <c r="B56">
+        <v>18.45</v>
+      </c>
+      <c r="C56">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.73673611000000006</v>
+      </c>
+      <c r="B57">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.73704860999999999</v>
+      </c>
+      <c r="B58">
+        <v>19.59</v>
+      </c>
+      <c r="C58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.73734953999999997</v>
+      </c>
+      <c r="B59">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="C59">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.73765046000000001</v>
+      </c>
+      <c r="B60">
+        <v>19.23</v>
+      </c>
+      <c r="C60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.73793982000000002</v>
+      </c>
+      <c r="B61">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="C61">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.73822916999999999</v>
+      </c>
+      <c r="B62">
+        <v>19.02</v>
+      </c>
+      <c r="C62">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.73850693999999995</v>
+      </c>
+      <c r="B63">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C63">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.74201744999999997</v>
+      </c>
+      <c r="B64">
+        <v>18.82</v>
+      </c>
+      <c r="C64">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.73999994999999996</v>
+      </c>
+      <c r="B65">
+        <v>18.75</v>
+      </c>
+      <c r="C65">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.74130099999999999</v>
+      </c>
+      <c r="B66">
+        <v>18.75</v>
+      </c>
+      <c r="C66">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.74262035000000004</v>
+      </c>
+      <c r="B67">
+        <v>18.79</v>
+      </c>
+      <c r="C67">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.74414860999999999</v>
+      </c>
+      <c r="B68">
+        <v>18.79</v>
+      </c>
+      <c r="C68">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.73947916999999996</v>
+      </c>
+      <c r="B69">
+        <v>18.59</v>
+      </c>
+      <c r="C69">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.73974536999999996</v>
+      </c>
+      <c r="B70">
+        <v>18.93</v>
+      </c>
+      <c r="C70">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.74</v>
+      </c>
+      <c r="B71">
+        <v>18.82</v>
+      </c>
+      <c r="C71">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.74025463000000002</v>
+      </c>
+      <c r="B72">
+        <v>19.2</v>
+      </c>
+      <c r="C72">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.74052083000000002</v>
+      </c>
+      <c r="B73">
+        <v>18.53</v>
+      </c>
+      <c r="C73">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.74077546000000005</v>
+      </c>
+      <c r="B74">
+        <v>19.05</v>
+      </c>
+      <c r="C74">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.74104166999999999</v>
+      </c>
+      <c r="B75">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="C75">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.74129630000000002</v>
+      </c>
+      <c r="B76">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="C76">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.74156250000000001</v>
+      </c>
+      <c r="B77">
+        <v>18.52</v>
+      </c>
+      <c r="C77">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.74182870000000001</v>
+      </c>
+      <c r="B78">
+        <v>19.04</v>
+      </c>
+      <c r="C78">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.74208333000000004</v>
+      </c>
+      <c r="B79">
+        <v>18.46</v>
+      </c>
+      <c r="C79">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.74234953999999997</v>
+      </c>
+      <c r="B80">
+        <v>19.88</v>
+      </c>
+      <c r="C80">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.74261573999999997</v>
+      </c>
+      <c r="B81">
+        <v>19.32</v>
+      </c>
+      <c r="C81">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.74287037</v>
+      </c>
+      <c r="B82">
+        <v>18.71</v>
+      </c>
+      <c r="C82">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.74318287000000005</v>
+      </c>
+      <c r="B83">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="C83">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.74351851999999996</v>
+      </c>
+      <c r="B84">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="C84">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.74384258999999997</v>
+      </c>
+      <c r="B85">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="C85">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.74414351999999995</v>
+      </c>
+      <c r="B86">
+        <v>19.04</v>
+      </c>
+      <c r="C86">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.74446758999999996</v>
+      </c>
+      <c r="B87">
+        <v>18.63</v>
+      </c>
+      <c r="C87">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.74476852000000004</v>
+      </c>
+      <c r="B88">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="C88">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.74817347000000001</v>
+      </c>
+      <c r="B89">
+        <v>18.48</v>
+      </c>
+      <c r="C89">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.74595498999999998</v>
+      </c>
+      <c r="B90">
+        <v>18.46</v>
+      </c>
+      <c r="C90">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.74763661999999997</v>
+      </c>
+      <c r="B91">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C91">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.74904883</v>
+      </c>
+      <c r="B92">
+        <v>18.55</v>
+      </c>
+      <c r="C92">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.75049745999999995</v>
+      </c>
+      <c r="B93">
+        <v>18.34</v>
+      </c>
+      <c r="C93">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.74512730999999999</v>
+      </c>
+      <c r="B94">
+        <v>18.7</v>
+      </c>
+      <c r="C94">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.74550925999999995</v>
+      </c>
+      <c r="B95">
+        <v>18.39</v>
+      </c>
+      <c r="C95">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.74582176</v>
+      </c>
+      <c r="B96">
+        <v>18.8</v>
+      </c>
+      <c r="C96">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.74612268999999998</v>
+      </c>
+      <c r="B97">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="C97">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.74642361000000002</v>
+      </c>
+      <c r="B98">
+        <v>18.11</v>
+      </c>
+      <c r="C98">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.74672453999999999</v>
+      </c>
+      <c r="B99">
+        <v>18.47</v>
+      </c>
+      <c r="C99">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.74706019000000001</v>
+      </c>
+      <c r="B100">
+        <v>18.43</v>
+      </c>
+      <c r="C100">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0.74737268999999995</v>
+      </c>
+      <c r="B101">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="C101">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0.74765046000000002</v>
+      </c>
+      <c r="B102">
+        <v>18.84</v>
+      </c>
+      <c r="C102">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0.74791666999999995</v>
+      </c>
+      <c r="B103">
+        <v>18.55</v>
+      </c>
+      <c r="C103">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0.74818287000000006</v>
+      </c>
+      <c r="B104">
+        <v>18.43</v>
+      </c>
+      <c r="C104">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0.74843749999999998</v>
+      </c>
+      <c r="B105">
+        <v>18.63</v>
+      </c>
+      <c r="C105">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.74870369999999997</v>
+      </c>
+      <c r="B106">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="C106">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0.74906249999999996</v>
+      </c>
+      <c r="B107">
+        <v>18.62</v>
+      </c>
+      <c r="C107">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0.74938656999999997</v>
+      </c>
+      <c r="B108">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="C108">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0.74965278000000002</v>
+      </c>
+      <c r="B109">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="C109">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0.74994212999999998</v>
+      </c>
+      <c r="B110">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C110">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0.75023147999999995</v>
+      </c>
+      <c r="B111">
+        <v>18.43</v>
+      </c>
+      <c r="C111">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.75050925999999996</v>
+      </c>
+      <c r="B112">
+        <v>18.23</v>
+      </c>
+      <c r="C112">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0.75077545999999995</v>
+      </c>
+      <c r="B113">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="C113">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0.75103008999999998</v>
+      </c>
+      <c r="B114">
+        <v>18.32</v>
+      </c>
+      <c r="C114">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/starting with data/excel files/their_data.xlsx
+++ b/starting with data/excel files/their_data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/jy1_mail_tau_ac_il/Documents/Desktop/אוניברסיטה/אסטרו נודר/פרויקט קיץ/התחלה של קוד/astro_summer_project/starting with data/excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{929C4B7A-6C9A-4CF6-90A6-5436C43B5C3C}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D89399-8C44-4E76-BE49-E3B48DB8793F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="after beaning" sheetId="1" r:id="rId1"/>
-    <sheet name="raw data" sheetId="2" r:id="rId2"/>
-    <sheet name="no beaning" sheetId="3" r:id="rId3"/>
-    <sheet name="pros data all" sheetId="4" r:id="rId4"/>
-    <sheet name="the graph data" sheetId="5" r:id="rId5"/>
+    <sheet name="only binning" sheetId="6" r:id="rId2"/>
+    <sheet name="raw data" sheetId="2" r:id="rId3"/>
+    <sheet name="no beaning" sheetId="3" r:id="rId4"/>
+    <sheet name="pros data all" sheetId="4" r:id="rId5"/>
+    <sheet name="the graph data" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="288">
   <si>
     <t>Image number</t>
   </si>
@@ -1334,7 +1335,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F1" activeCellId="2" sqref="C1:C1048576 E1:E1048576 F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1854,6 +1855,197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FCE409-120B-4699-9E93-D679B3CDC244}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.69693183999999997</v>
+      </c>
+      <c r="B2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.7361548</v>
+      </c>
+      <c r="B3">
+        <v>19.03</v>
+      </c>
+      <c r="C3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.73452949000000001</v>
+      </c>
+      <c r="B4">
+        <v>19.11</v>
+      </c>
+      <c r="C4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.73629635999999998</v>
+      </c>
+      <c r="B5">
+        <v>19.02</v>
+      </c>
+      <c r="C5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.73793518000000002</v>
+      </c>
+      <c r="B6">
+        <v>18.98</v>
+      </c>
+      <c r="C6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.74201744999999997</v>
+      </c>
+      <c r="B7">
+        <v>18.82</v>
+      </c>
+      <c r="C7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.73999994999999996</v>
+      </c>
+      <c r="B8">
+        <v>18.75</v>
+      </c>
+      <c r="C8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.74130099999999999</v>
+      </c>
+      <c r="B9">
+        <v>18.75</v>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.74262035000000004</v>
+      </c>
+      <c r="B10">
+        <v>18.79</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.74414860999999999</v>
+      </c>
+      <c r="B11">
+        <v>18.79</v>
+      </c>
+      <c r="C11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.74817347000000001</v>
+      </c>
+      <c r="B12">
+        <v>18.48</v>
+      </c>
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.74595498999999998</v>
+      </c>
+      <c r="B13">
+        <v>18.46</v>
+      </c>
+      <c r="C13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.74763661999999997</v>
+      </c>
+      <c r="B14">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.74904883</v>
+      </c>
+      <c r="B15">
+        <v>18.55</v>
+      </c>
+      <c r="C15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.75049745999999995</v>
+      </c>
+      <c r="B16">
+        <v>18.34</v>
+      </c>
+      <c r="C16">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0505C6EC-8959-4512-9AB0-5FB33F120081}">
   <dimension ref="A1:F114"/>
   <sheetViews>
@@ -4070,11 +4262,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17755A5D-8192-4EAC-BA1F-7BB145CE0EFA}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
@@ -5996,12 +6188,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA280E6-8488-4518-84BE-84ACD5E49096}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9091,12 +9283,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E784F8B6-D0C0-4E55-9E71-D0B5243C9B85}">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/starting with data/excel files/their_data.xlsx
+++ b/starting with data/excel files/their_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/jy1_mail_tau_ac_il/Documents/Desktop/אוניברסיטה/אסטרו נודר/פרויקט קיץ/התחלה של קוד/astro_summer_project/starting with data/excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D89399-8C44-4E76-BE49-E3B48DB8793F}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA36E9E2-7575-4A85-8459-4ABAAA4133D6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="2" sqref="C1:C1048576 E1:E1048576 F1:F1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/starting with data/excel files/their_data.xlsx
+++ b/starting with data/excel files/their_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/jy1_mail_tau_ac_il/Documents/Desktop/אוניברסיטה/אסטרו נודר/פרויקט קיץ/התחלה של קוד/astro_summer_project/starting with data/excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA36E9E2-7575-4A85-8459-4ABAAA4133D6}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2100F67E-BCCD-4C3F-A82F-381B4F6417C8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="after beaning" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,22 @@
     <sheet name="no beaning" sheetId="3" r:id="rId4"/>
     <sheet name="pros data all" sheetId="4" r:id="rId5"/>
     <sheet name="the graph data" sheetId="5" r:id="rId6"/>
+    <sheet name="after exctintion" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,8 +56,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={27D4C1A8-FA85-4352-A52E-FC5F0DB39720}</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{27D4C1A8-FA85-4352-A52E-FC5F0DB39720}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    i took of 0.052 for the extinction</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="288">
   <si>
     <t>Image number</t>
   </si>
@@ -913,7 +945,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,6 +965,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6897BB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -971,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -980,6 +1024,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,6 +1377,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B2" dT="2022-08-31T13:24:42.55" personId="{5559253F-A3C1-4F96-8B58-B9E5EC53EC9B}" id="{27D4C1A8-FA85-4352-A52E-FC5F0DB39720}">
+    <text>i took of 0.052 for the extinction</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
@@ -1338,9 +1393,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1401,7 +1456,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1433,7 +1488,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1465,7 +1520,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1497,7 +1552,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1529,7 +1584,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1561,7 +1616,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1593,7 +1648,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1625,7 +1680,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1657,7 +1712,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1689,7 +1744,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1721,7 +1776,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1753,7 +1808,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1785,7 +1840,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1817,7 +1872,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1858,13 +1913,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FCE409-120B-4699-9E93-D679B3CDC244}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.69693183999999997</v>
       </c>
@@ -1886,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.7361548</v>
       </c>
@@ -1897,7 +1952,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.73452949000000001</v>
       </c>
@@ -1908,7 +1963,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.73629635999999998</v>
       </c>
@@ -1919,7 +1974,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.73793518000000002</v>
       </c>
@@ -1930,7 +1985,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.74201744999999997</v>
       </c>
@@ -1941,7 +1996,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.73999994999999996</v>
       </c>
@@ -1952,7 +2007,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.74130099999999999</v>
       </c>
@@ -1963,7 +2018,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.74262035000000004</v>
       </c>
@@ -1974,7 +2029,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>0.74414860999999999</v>
       </c>
@@ -1985,7 +2040,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>0.74817347000000001</v>
       </c>
@@ -1996,7 +2051,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>0.74595498999999998</v>
       </c>
@@ -2007,7 +2062,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>0.74763661999999997</v>
       </c>
@@ -2018,7 +2073,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>0.74904883</v>
       </c>
@@ -2029,7 +2084,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>0.75049745999999995</v>
       </c>
@@ -2049,13 +2104,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0505C6EC-8959-4512-9AB0-5FB33F120081}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:F114"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="25.2" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26.4" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="26.4" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2113,7 +2168,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="26.4" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2131,7 +2186,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2149,7 +2204,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="26.4" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2167,7 +2222,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="26.4" customHeight="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2185,7 +2240,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="26.4" customHeight="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2203,7 +2258,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="26.4" customHeight="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2221,7 +2276,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="26.4" customHeight="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2239,7 +2294,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="26.4" customHeight="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2257,7 +2312,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.4" customHeight="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2275,7 +2330,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.4" customHeight="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2293,7 +2348,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.4" customHeight="1">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2311,7 +2366,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="26.4" customHeight="1">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2329,7 +2384,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="26.4" customHeight="1">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2347,7 +2402,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="26.4" customHeight="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2365,7 +2420,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="26.4" customHeight="1">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2383,7 +2438,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="26.4" customHeight="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2401,7 +2456,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="26.4" customHeight="1">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2419,7 +2474,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="26.4" customHeight="1">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2437,7 +2492,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="26.4" customHeight="1">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2455,7 +2510,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="26.4" customHeight="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2473,7 +2528,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="26.4" customHeight="1">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2491,7 +2546,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="26.4" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2509,7 +2564,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="26.4" customHeight="1">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2527,7 +2582,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="26.4" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2545,7 +2600,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="26.4" customHeight="1">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2563,7 +2618,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="26.4" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2581,7 +2636,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="26.4" customHeight="1">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2599,7 +2654,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="26.4" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2617,7 +2672,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="26.4" customHeight="1">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2635,7 +2690,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="26.4" customHeight="1">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -2653,7 +2708,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="26.4" customHeight="1">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2671,7 +2726,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="26.4" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2689,7 +2744,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="26.4" customHeight="1">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2707,7 +2762,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="26.4" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2725,7 +2780,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.4" customHeight="1">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2743,7 +2798,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.4" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2761,7 +2816,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.4" customHeight="1">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2779,7 +2834,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="26.4" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2797,7 +2852,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="26.4" customHeight="1">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2817,7 +2872,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="26.4" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -2837,7 +2892,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="26.4" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="26.4" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -2877,7 +2932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="26.4" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -2897,7 +2952,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="26.4" customHeight="1">
       <c r="A47" s="2">
         <v>41</v>
       </c>
@@ -2917,7 +2972,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="26.4" customHeight="1">
       <c r="A48" s="2">
         <v>42</v>
       </c>
@@ -2937,7 +2992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="26.4" customHeight="1">
       <c r="A49" s="2">
         <v>43</v>
       </c>
@@ -2957,7 +3012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="26.4" customHeight="1">
       <c r="A50" s="2">
         <v>44</v>
       </c>
@@ -2977,7 +3032,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="26.4" customHeight="1">
       <c r="A51" s="2">
         <v>45</v>
       </c>
@@ -2997,7 +3052,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="26.4" customHeight="1">
       <c r="A52" s="2">
         <v>46</v>
       </c>
@@ -3017,7 +3072,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="26.4" customHeight="1">
       <c r="A53" s="2">
         <v>47</v>
       </c>
@@ -3037,7 +3092,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="26.4" customHeight="1">
       <c r="A54" s="2">
         <v>48</v>
       </c>
@@ -3057,7 +3112,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="26.4" customHeight="1">
       <c r="A55" s="2">
         <v>49</v>
       </c>
@@ -3077,7 +3132,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="26.4" customHeight="1">
       <c r="A56" s="2">
         <v>50</v>
       </c>
@@ -3097,7 +3152,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="26.4" customHeight="1">
       <c r="A57" s="2">
         <v>51</v>
       </c>
@@ -3117,7 +3172,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="26.4" customHeight="1">
       <c r="A58" s="2">
         <v>52</v>
       </c>
@@ -3137,7 +3192,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="26.4" customHeight="1">
       <c r="A59" s="2">
         <v>53</v>
       </c>
@@ -3157,7 +3212,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="26.4" customHeight="1">
       <c r="A60" s="2">
         <v>54</v>
       </c>
@@ -3177,7 +3232,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="26.4" customHeight="1">
       <c r="A61" s="2">
         <v>55</v>
       </c>
@@ -3197,7 +3252,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="26.4" customHeight="1">
       <c r="A62" s="2">
         <v>56</v>
       </c>
@@ -3217,7 +3272,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="26.4" customHeight="1">
       <c r="A63" s="2">
         <v>57</v>
       </c>
@@ -3237,7 +3292,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="26.4" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>14</v>
       </c>
@@ -3257,7 +3312,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="26.4" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>15</v>
       </c>
@@ -3277,7 +3332,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="26.4" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
@@ -3297,7 +3352,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="26.4" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>17</v>
       </c>
@@ -3317,7 +3372,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="26.4" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>18</v>
       </c>
@@ -3337,7 +3392,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="26.4" customHeight="1">
       <c r="A69" s="2">
         <v>58</v>
       </c>
@@ -3357,7 +3412,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="26.4" customHeight="1">
       <c r="A70" s="2">
         <v>59</v>
       </c>
@@ -3377,7 +3432,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="26.4" customHeight="1">
       <c r="A71" s="2">
         <v>60</v>
       </c>
@@ -3397,7 +3452,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="26.4" customHeight="1">
       <c r="A72" s="2">
         <v>61</v>
       </c>
@@ -3417,7 +3472,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="26.4" customHeight="1">
       <c r="A73" s="2">
         <v>62</v>
       </c>
@@ -3437,7 +3492,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="26.4" customHeight="1">
       <c r="A74" s="2">
         <v>63</v>
       </c>
@@ -3457,7 +3512,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="26.4" customHeight="1">
       <c r="A75" s="2">
         <v>64</v>
       </c>
@@ -3477,7 +3532,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="26.4" customHeight="1">
       <c r="A76" s="2">
         <v>65</v>
       </c>
@@ -3497,7 +3552,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="26.4" customHeight="1">
       <c r="A77" s="2">
         <v>66</v>
       </c>
@@ -3517,7 +3572,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="26.4" customHeight="1">
       <c r="A78" s="2">
         <v>67</v>
       </c>
@@ -3537,7 +3592,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="26.4" customHeight="1">
       <c r="A79" s="2">
         <v>68</v>
       </c>
@@ -3557,7 +3612,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="26.4" customHeight="1">
       <c r="A80" s="2">
         <v>69</v>
       </c>
@@ -3577,7 +3632,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="26.4" customHeight="1">
       <c r="A81" s="2">
         <v>70</v>
       </c>
@@ -3597,7 +3652,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="26.4" customHeight="1">
       <c r="A82" s="2">
         <v>71</v>
       </c>
@@ -3617,7 +3672,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="26.4" customHeight="1">
       <c r="A83" s="2">
         <v>72</v>
       </c>
@@ -3637,7 +3692,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="26.4" customHeight="1">
       <c r="A84" s="2">
         <v>73</v>
       </c>
@@ -3657,7 +3712,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="26.4" customHeight="1">
       <c r="A85" s="2">
         <v>74</v>
       </c>
@@ -3677,7 +3732,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="26.4" customHeight="1">
       <c r="A86" s="2">
         <v>75</v>
       </c>
@@ -3697,7 +3752,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="26.4" customHeight="1">
       <c r="A87" s="2">
         <v>76</v>
       </c>
@@ -3717,7 +3772,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="26.4" customHeight="1">
       <c r="A88" s="2">
         <v>77</v>
       </c>
@@ -3737,7 +3792,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="26.4" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3757,7 +3812,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="26.4" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>20</v>
       </c>
@@ -3777,7 +3832,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="26.4" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>21</v>
       </c>
@@ -3797,7 +3852,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="26.4" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>22</v>
       </c>
@@ -3817,7 +3872,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="26.4" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
@@ -3837,7 +3892,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="26.4" customHeight="1">
       <c r="A94" s="2">
         <v>78</v>
       </c>
@@ -3857,7 +3912,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="26.4" customHeight="1">
       <c r="A95" s="2">
         <v>79</v>
       </c>
@@ -3877,7 +3932,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="26.4" customHeight="1">
       <c r="A96" s="2">
         <v>80</v>
       </c>
@@ -3897,7 +3952,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="26.4" customHeight="1">
       <c r="A97" s="2">
         <v>81</v>
       </c>
@@ -3917,7 +3972,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="26.4" customHeight="1">
       <c r="A98" s="2">
         <v>82</v>
       </c>
@@ -3937,7 +3992,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="26.4" customHeight="1">
       <c r="A99" s="2">
         <v>83</v>
       </c>
@@ -3957,7 +4012,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="26.4" customHeight="1">
       <c r="A100" s="2">
         <v>84</v>
       </c>
@@ -3977,7 +4032,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="26.4" customHeight="1">
       <c r="A101" s="2">
         <v>85</v>
       </c>
@@ -3997,7 +4052,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="26.4" customHeight="1">
       <c r="A102" s="2">
         <v>86</v>
       </c>
@@ -4017,7 +4072,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="26.4" customHeight="1">
       <c r="A103" s="2">
         <v>87</v>
       </c>
@@ -4037,7 +4092,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="26.4" customHeight="1">
       <c r="A104" s="2">
         <v>88</v>
       </c>
@@ -4057,7 +4112,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="26.4" customHeight="1">
       <c r="A105" s="2">
         <v>89</v>
       </c>
@@ -4077,7 +4132,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="26.4" customHeight="1">
       <c r="A106" s="2">
         <v>90</v>
       </c>
@@ -4097,7 +4152,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="26.4" customHeight="1">
       <c r="A107" s="2">
         <v>91</v>
       </c>
@@ -4117,7 +4172,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="26.4" customHeight="1">
       <c r="A108" s="2">
         <v>92</v>
       </c>
@@ -4137,7 +4192,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="26.4" customHeight="1">
       <c r="A109" s="2">
         <v>93</v>
       </c>
@@ -4157,7 +4212,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="26.4" customHeight="1">
       <c r="A110" s="2">
         <v>94</v>
       </c>
@@ -4177,7 +4232,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="26.4" customHeight="1">
       <c r="A111" s="2">
         <v>95</v>
       </c>
@@ -4197,7 +4252,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="26.4" customHeight="1">
       <c r="A112" s="2">
         <v>96</v>
       </c>
@@ -4217,7 +4272,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="26.4" customHeight="1">
       <c r="A113" s="2">
         <v>97</v>
       </c>
@@ -4237,7 +4292,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="26.4" customHeight="1">
       <c r="A114" s="2">
         <v>98</v>
       </c>
@@ -4270,7 +4325,7 @@
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
@@ -4280,7 +4335,7 @@
     <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="25.2" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4300,7 +4355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4318,7 +4373,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4336,7 +4391,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4354,7 +4409,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4372,7 +4427,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4390,7 +4445,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4408,7 +4463,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4426,7 +4481,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4444,7 +4499,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4462,7 +4517,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4480,7 +4535,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4498,7 +4553,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4516,7 +4571,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4534,7 +4589,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4552,7 +4607,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4570,7 +4625,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4588,7 +4643,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4606,7 +4661,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4624,7 +4679,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4642,7 +4697,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4660,7 +4715,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4678,7 +4733,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4696,7 +4751,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4714,7 +4769,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4732,7 +4787,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4750,7 +4805,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4768,7 +4823,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4786,7 +4841,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4804,7 +4859,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4822,7 +4877,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4840,7 +4895,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="3">
         <v>33</v>
       </c>
@@ -4858,7 +4913,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4876,7 +4931,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4894,7 +4949,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4912,7 +4967,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4930,7 +4985,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4948,7 +5003,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4966,7 +5021,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4984,7 +5039,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5002,7 +5057,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5022,7 +5077,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5042,7 +5097,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5062,7 +5117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5082,7 +5137,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5102,7 +5157,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -5122,7 +5177,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5142,7 +5197,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5162,7 +5217,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5182,7 +5237,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5202,7 +5257,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5222,7 +5277,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -5242,7 +5297,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5262,7 +5317,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -5282,7 +5337,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5302,7 +5357,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5322,7 +5377,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5342,7 +5397,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5362,7 +5417,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5382,7 +5437,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5402,7 +5457,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5422,7 +5477,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5442,7 +5497,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5462,7 +5517,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -5482,7 +5537,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -5502,7 +5557,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -5522,7 +5577,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -5542,7 +5597,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5562,7 +5617,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -5582,7 +5637,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5602,7 +5657,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -5622,7 +5677,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -5642,7 +5697,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -5662,7 +5717,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -5682,7 +5737,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -5702,7 +5757,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -5722,7 +5777,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -5742,7 +5797,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -5762,7 +5817,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -5782,7 +5837,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -5802,7 +5857,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -5822,7 +5877,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -5842,7 +5897,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -5862,7 +5917,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -5882,7 +5937,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -5902,7 +5957,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -5922,7 +5977,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -5942,7 +5997,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -5962,7 +6017,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -5982,7 +6037,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -6002,7 +6057,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -6022,7 +6077,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -6042,7 +6097,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -6062,7 +6117,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -6082,7 +6137,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -6102,7 +6157,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -6122,7 +6177,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -6142,7 +6197,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -6162,7 +6217,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -6196,7 +6251,7 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
@@ -6209,7 +6264,7 @@
     <col min="9" max="9" width="20.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6238,7 +6293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -6267,7 +6322,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6290,7 +6345,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6313,7 +6368,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6336,7 +6391,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6359,7 +6414,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6382,7 +6437,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6405,7 +6460,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6428,7 +6483,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6451,7 +6506,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6474,7 +6529,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6497,7 +6552,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6520,7 +6575,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6543,7 +6598,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6566,7 +6621,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6589,7 +6644,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6612,7 +6667,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6635,7 +6690,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6658,7 +6713,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6681,7 +6736,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6704,7 +6759,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6727,7 +6782,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6750,7 +6805,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6773,7 +6828,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6796,7 +6851,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6819,7 +6874,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6842,7 +6897,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6865,7 +6920,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6888,7 +6943,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6911,7 +6966,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6934,7 +6989,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6957,7 +7012,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>33</v>
       </c>
@@ -6980,7 +7035,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7003,7 +7058,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>33</v>
       </c>
@@ -7026,7 +7081,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>34</v>
       </c>
@@ -7049,7 +7104,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>35</v>
       </c>
@@ -7072,7 +7127,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>36</v>
       </c>
@@ -7095,7 +7150,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>37</v>
       </c>
@@ -7118,7 +7173,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>38</v>
       </c>
@@ -7141,7 +7196,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>39</v>
       </c>
@@ -7164,7 +7219,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>40</v>
       </c>
@@ -7190,7 +7245,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -7219,7 +7274,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -7248,7 +7303,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -7277,7 +7332,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -7306,7 +7361,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>41</v>
       </c>
@@ -7335,7 +7390,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>42</v>
       </c>
@@ -7364,7 +7419,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>43</v>
       </c>
@@ -7393,7 +7448,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>44</v>
       </c>
@@ -7422,7 +7477,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>45</v>
       </c>
@@ -7451,7 +7506,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>46</v>
       </c>
@@ -7480,7 +7535,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>47</v>
       </c>
@@ -7509,7 +7564,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>48</v>
       </c>
@@ -7538,7 +7593,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>49</v>
       </c>
@@ -7567,7 +7622,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>50</v>
       </c>
@@ -7596,7 +7651,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>51</v>
       </c>
@@ -7625,7 +7680,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>52</v>
       </c>
@@ -7654,7 +7709,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>53</v>
       </c>
@@ -7683,7 +7738,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>54</v>
       </c>
@@ -7712,7 +7767,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>55</v>
       </c>
@@ -7741,7 +7796,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>56</v>
       </c>
@@ -7770,7 +7825,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>57</v>
       </c>
@@ -7799,7 +7854,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -7828,7 +7883,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -7857,7 +7912,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -7886,7 +7941,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -7915,7 +7970,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -7944,7 +7999,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>58</v>
       </c>
@@ -7973,7 +8028,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>59</v>
       </c>
@@ -8002,7 +8057,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>60</v>
       </c>
@@ -8031,7 +8086,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>61</v>
       </c>
@@ -8060,7 +8115,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>62</v>
       </c>
@@ -8089,7 +8144,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>63</v>
       </c>
@@ -8118,7 +8173,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>64</v>
       </c>
@@ -8147,7 +8202,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>65</v>
       </c>
@@ -8176,7 +8231,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>66</v>
       </c>
@@ -8205,7 +8260,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>67</v>
       </c>
@@ -8234,7 +8289,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>68</v>
       </c>
@@ -8263,7 +8318,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>69</v>
       </c>
@@ -8292,7 +8347,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>70</v>
       </c>
@@ -8321,7 +8376,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>71</v>
       </c>
@@ -8350,7 +8405,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>72</v>
       </c>
@@ -8379,7 +8434,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>73</v>
       </c>
@@ -8408,7 +8463,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>74</v>
       </c>
@@ -8437,7 +8492,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>75</v>
       </c>
@@ -8466,7 +8521,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>76</v>
       </c>
@@ -8495,7 +8550,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>77</v>
       </c>
@@ -8524,7 +8579,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -8553,7 +8608,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -8582,7 +8637,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -8611,7 +8666,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -8640,7 +8695,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -8669,7 +8724,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>78</v>
       </c>
@@ -8698,7 +8753,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>79</v>
       </c>
@@ -8727,7 +8782,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>80</v>
       </c>
@@ -8756,7 +8811,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>81</v>
       </c>
@@ -8785,7 +8840,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>82</v>
       </c>
@@ -8814,7 +8869,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>83</v>
       </c>
@@ -8843,7 +8898,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>84</v>
       </c>
@@ -8872,7 +8927,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>85</v>
       </c>
@@ -8901,7 +8956,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>86</v>
       </c>
@@ -8930,7 +8985,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>87</v>
       </c>
@@ -8959,7 +9014,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>88</v>
       </c>
@@ -8988,7 +9043,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>89</v>
       </c>
@@ -9017,7 +9072,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>90</v>
       </c>
@@ -9046,7 +9101,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>91</v>
       </c>
@@ -9075,7 +9130,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>92</v>
       </c>
@@ -9104,7 +9159,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>93</v>
       </c>
@@ -9133,7 +9188,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>94</v>
       </c>
@@ -9162,7 +9217,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9191,7 +9246,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>96</v>
       </c>
@@ -9220,7 +9275,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>97</v>
       </c>
@@ -9249,7 +9304,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>98</v>
       </c>
@@ -9287,18 +9342,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E784F8B6-D0C0-4E55-9E71-D0B5243C9B85}">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="17.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9309,7 +9364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.69693183999999997</v>
       </c>
@@ -9320,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.69085648</v>
       </c>
@@ -9331,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.69115740999999997</v>
       </c>
@@ -9342,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.69143518999999998</v>
       </c>
@@ -9353,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.69172454000000005</v>
       </c>
@@ -9364,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.69200231000000001</v>
       </c>
@@ -9375,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.69229167000000003</v>
       </c>
@@ -9386,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.69256943999999998</v>
       </c>
@@ -9397,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.6928588</v>
       </c>
@@ -9408,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>0.69314814999999996</v>
       </c>
@@ -9419,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>0.69351852000000003</v>
       </c>
@@ -9430,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>0.69387730999999997</v>
       </c>
@@ -9441,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>0.69416666999999999</v>
       </c>
@@ -9452,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>0.69445601999999995</v>
       </c>
@@ -9463,7 +9518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>0.69474537000000003</v>
       </c>
@@ -9474,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>0.69504630000000001</v>
       </c>
@@ -9485,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>0.69534722000000004</v>
       </c>
@@ -9496,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>0.69563657000000001</v>
       </c>
@@ -9507,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>0.69592593000000003</v>
       </c>
@@ -9518,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>0.69621527999999999</v>
       </c>
@@ -9529,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>0.69649306</v>
       </c>
@@ -9540,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>0.69678240999999996</v>
       </c>
@@ -9551,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>0.69734954000000005</v>
       </c>
@@ -9562,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>0.69769676000000003</v>
       </c>
@@ -9573,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>0.69798610999999999</v>
       </c>
@@ -9584,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>0.69827545999999996</v>
       </c>
@@ -9595,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>0.69856481000000004</v>
       </c>
@@ -9606,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>0.69884259000000004</v>
       </c>
@@ -9617,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>0.69913194000000001</v>
       </c>
@@ -9628,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>0.69942130000000002</v>
       </c>
@@ -9639,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>0.69987268999999996</v>
       </c>
@@ -9650,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>0.70018519000000001</v>
       </c>
@@ -9661,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>0.70049768000000001</v>
       </c>
@@ -9672,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>0.70121528</v>
       </c>
@@ -9683,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>0.70171296000000005</v>
       </c>
@@ -9694,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>0.70200231000000002</v>
       </c>
@@ -9705,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>0.70228009000000002</v>
       </c>
@@ -9716,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>0.70256943999999999</v>
       </c>
@@ -9727,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>0.70285880000000001</v>
       </c>
@@ -9738,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>0.70313656999999996</v>
       </c>
@@ -9749,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>0.70342592999999998</v>
       </c>
@@ -9760,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>0.7361548</v>
       </c>
@@ -9771,7 +9826,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>0.73452949000000001</v>
       </c>
@@ -9782,7 +9837,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>0.73629635999999998</v>
       </c>
@@ -9793,7 +9848,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>0.73793518000000002</v>
       </c>
@@ -9804,7 +9859,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>0.73376156999999997</v>
       </c>
@@ -9815,7 +9870,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>0.73410880000000001</v>
       </c>
@@ -9826,7 +9881,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>0.73439814999999997</v>
       </c>
@@ -9837,7 +9892,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>0.73468750000000005</v>
       </c>
@@ -9848,7 +9903,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>0.73496528000000005</v>
       </c>
@@ -9859,7 +9914,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>0.73525463000000002</v>
       </c>
@@ -9870,7 +9925,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>0.73554397999999999</v>
       </c>
@@ -9881,7 +9936,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>0.73585648000000003</v>
       </c>
@@ -9892,7 +9947,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>0.73614583</v>
       </c>
@@ -9903,7 +9958,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>0.73644675999999998</v>
       </c>
@@ -9914,7 +9969,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>0.73673611000000006</v>
       </c>
@@ -9925,7 +9980,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>0.73704860999999999</v>
       </c>
@@ -9936,7 +9991,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>0.73734953999999997</v>
       </c>
@@ -9947,7 +10002,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>0.73765046000000001</v>
       </c>
@@ -9958,7 +10013,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>0.73793982000000002</v>
       </c>
@@ -9969,7 +10024,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>0.73822916999999999</v>
       </c>
@@ -9980,7 +10035,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>0.73850693999999995</v>
       </c>
@@ -9991,7 +10046,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>0.74201744999999997</v>
       </c>
@@ -10002,7 +10057,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>0.73999994999999996</v>
       </c>
@@ -10013,7 +10068,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>0.74130099999999999</v>
       </c>
@@ -10024,7 +10079,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>0.74262035000000004</v>
       </c>
@@ -10035,7 +10090,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>0.74414860999999999</v>
       </c>
@@ -10046,7 +10101,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>0.73947916999999996</v>
       </c>
@@ -10057,7 +10112,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>0.73974536999999996</v>
       </c>
@@ -10068,7 +10123,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>0.74</v>
       </c>
@@ -10079,7 +10134,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>0.74025463000000002</v>
       </c>
@@ -10090,7 +10145,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>0.74052083000000002</v>
       </c>
@@ -10101,7 +10156,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>0.74077546000000005</v>
       </c>
@@ -10112,7 +10167,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>0.74104166999999999</v>
       </c>
@@ -10123,7 +10178,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>0.74129630000000002</v>
       </c>
@@ -10134,7 +10189,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>0.74156250000000001</v>
       </c>
@@ -10145,7 +10200,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>0.74182870000000001</v>
       </c>
@@ -10156,7 +10211,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>0.74208333000000004</v>
       </c>
@@ -10167,7 +10222,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>0.74234953999999997</v>
       </c>
@@ -10178,7 +10233,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>0.74261573999999997</v>
       </c>
@@ -10189,7 +10244,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>0.74287037</v>
       </c>
@@ -10200,7 +10255,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>0.74318287000000005</v>
       </c>
@@ -10211,7 +10266,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>0.74351851999999996</v>
       </c>
@@ -10222,7 +10277,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>0.74384258999999997</v>
       </c>
@@ -10233,7 +10288,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>0.74414351999999995</v>
       </c>
@@ -10244,7 +10299,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>0.74446758999999996</v>
       </c>
@@ -10255,7 +10310,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>0.74476852000000004</v>
       </c>
@@ -10266,7 +10321,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>0.74817347000000001</v>
       </c>
@@ -10277,7 +10332,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>0.74595498999999998</v>
       </c>
@@ -10288,7 +10343,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>0.74763661999999997</v>
       </c>
@@ -10299,7 +10354,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>0.74904883</v>
       </c>
@@ -10310,7 +10365,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>0.75049745999999995</v>
       </c>
@@ -10321,7 +10376,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>0.74512730999999999</v>
       </c>
@@ -10332,7 +10387,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>0.74550925999999995</v>
       </c>
@@ -10343,7 +10398,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>0.74582176</v>
       </c>
@@ -10354,7 +10409,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>0.74612268999999998</v>
       </c>
@@ -10365,7 +10420,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>0.74642361000000002</v>
       </c>
@@ -10376,7 +10431,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>0.74672453999999999</v>
       </c>
@@ -10387,7 +10442,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>0.74706019000000001</v>
       </c>
@@ -10398,7 +10453,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>0.74737268999999995</v>
       </c>
@@ -10409,7 +10464,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>0.74765046000000002</v>
       </c>
@@ -10420,7 +10475,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>0.74791666999999995</v>
       </c>
@@ -10431,7 +10486,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>0.74818287000000006</v>
       </c>
@@ -10442,7 +10497,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>0.74843749999999998</v>
       </c>
@@ -10453,7 +10508,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>0.74870369999999997</v>
       </c>
@@ -10464,7 +10519,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>0.74906249999999996</v>
       </c>
@@ -10475,7 +10530,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>0.74938656999999997</v>
       </c>
@@ -10486,7 +10541,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>0.74965278000000002</v>
       </c>
@@ -10497,7 +10552,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>0.74994212999999998</v>
       </c>
@@ -10508,7 +10563,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>0.75023147999999995</v>
       </c>
@@ -10519,7 +10574,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>0.75050925999999996</v>
       </c>
@@ -10530,7 +10585,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>0.75077545999999995</v>
       </c>
@@ -10541,7 +10596,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>0.75103008999999998</v>
       </c>
@@ -10555,4 +10610,825 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5FEE3E-EED2-4242-BB17-32352DA5E758}">
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>0.7361548</v>
+      </c>
+      <c r="B2">
+        <v>18.977</v>
+      </c>
+      <c r="C2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0.73452949000000001</v>
+      </c>
+      <c r="B3">
+        <v>19.056999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>0.73629635999999998</v>
+      </c>
+      <c r="B4">
+        <v>18.966999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>0.73793518000000002</v>
+      </c>
+      <c r="B5">
+        <v>18.927</v>
+      </c>
+      <c r="C5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>0.73376156999999997</v>
+      </c>
+      <c r="B6">
+        <v>18.896999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>0.73410880000000001</v>
+      </c>
+      <c r="B7">
+        <v>19.497</v>
+      </c>
+      <c r="C7">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>0.73439814999999997</v>
+      </c>
+      <c r="B8">
+        <v>18.896999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>0.73468750000000005</v>
+      </c>
+      <c r="B9">
+        <v>18.716999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>0.73496528000000005</v>
+      </c>
+      <c r="B10">
+        <v>19.596999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>0.73525463000000002</v>
+      </c>
+      <c r="B11">
+        <v>19.356999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>0.73554397999999999</v>
+      </c>
+      <c r="B12">
+        <v>18.957000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>0.73585648000000003</v>
+      </c>
+      <c r="B13">
+        <v>19.207000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>0.73614583</v>
+      </c>
+      <c r="B14">
+        <v>19.087</v>
+      </c>
+      <c r="C14">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>0.73644675999999998</v>
+      </c>
+      <c r="B15">
+        <v>18.396999999999998</v>
+      </c>
+      <c r="C15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>0.73673611000000006</v>
+      </c>
+      <c r="B16">
+        <v>19.346999999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>0.73704860999999999</v>
+      </c>
+      <c r="B17">
+        <v>19.536999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>0.73734953999999997</v>
+      </c>
+      <c r="B18">
+        <v>19.117000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>0.73765046000000001</v>
+      </c>
+      <c r="B19">
+        <v>19.177</v>
+      </c>
+      <c r="C19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>0.73793982000000002</v>
+      </c>
+      <c r="B20">
+        <v>18.617000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>0.73822916999999999</v>
+      </c>
+      <c r="B21">
+        <v>18.966999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>0.73850693999999995</v>
+      </c>
+      <c r="B22">
+        <v>18.846999999999998</v>
+      </c>
+      <c r="C22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>0.74201744999999997</v>
+      </c>
+      <c r="B23">
+        <v>18.766999999999999</v>
+      </c>
+      <c r="C23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>0.73999994999999996</v>
+      </c>
+      <c r="B24">
+        <v>18.696999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>0.74130099999999999</v>
+      </c>
+      <c r="B25">
+        <v>18.696999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>0.74262035000000004</v>
+      </c>
+      <c r="B26">
+        <v>18.736999999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>0.74414860999999999</v>
+      </c>
+      <c r="B27">
+        <v>18.736999999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>0.73947916999999996</v>
+      </c>
+      <c r="B28">
+        <v>18.536999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>0.73974536999999996</v>
+      </c>
+      <c r="B29">
+        <v>18.876999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>0.74</v>
+      </c>
+      <c r="B30">
+        <v>18.766999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>0.74025463000000002</v>
+      </c>
+      <c r="B31">
+        <v>19.146999999999998</v>
+      </c>
+      <c r="C31">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>0.74052083000000002</v>
+      </c>
+      <c r="B32">
+        <v>18.477</v>
+      </c>
+      <c r="C32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>0.74077546000000005</v>
+      </c>
+      <c r="B33">
+        <v>18.997</v>
+      </c>
+      <c r="C33">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>0.74104166999999999</v>
+      </c>
+      <c r="B34">
+        <v>18.297000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>0.74129630000000002</v>
+      </c>
+      <c r="B35">
+        <v>18.957000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>0.74156250000000001</v>
+      </c>
+      <c r="B36">
+        <v>18.466999999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>0.74182870000000001</v>
+      </c>
+      <c r="B37">
+        <v>18.986999999999998</v>
+      </c>
+      <c r="C37">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>0.74208333000000004</v>
+      </c>
+      <c r="B38">
+        <v>18.407</v>
+      </c>
+      <c r="C38">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>0.74234953999999997</v>
+      </c>
+      <c r="B39">
+        <v>19.826999999999998</v>
+      </c>
+      <c r="C39">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>0.74261573999999997</v>
+      </c>
+      <c r="B40">
+        <v>19.266999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>0.74287037</v>
+      </c>
+      <c r="B41">
+        <v>18.657</v>
+      </c>
+      <c r="C41">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>0.74318287000000005</v>
+      </c>
+      <c r="B42">
+        <v>18.776999999999997</v>
+      </c>
+      <c r="C42">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>0.74351851999999996</v>
+      </c>
+      <c r="B43">
+        <v>18.887</v>
+      </c>
+      <c r="C43">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>0.74384258999999997</v>
+      </c>
+      <c r="B44">
+        <v>18.957000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>0.74414351999999995</v>
+      </c>
+      <c r="B45">
+        <v>18.986999999999998</v>
+      </c>
+      <c r="C45">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>0.74446758999999996</v>
+      </c>
+      <c r="B46">
+        <v>18.576999999999998</v>
+      </c>
+      <c r="C46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>0.74476852000000004</v>
+      </c>
+      <c r="B47">
+        <v>18.526999999999997</v>
+      </c>
+      <c r="C47">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>0.74817347000000001</v>
+      </c>
+      <c r="B48">
+        <v>18.427</v>
+      </c>
+      <c r="C48">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>0.74595498999999998</v>
+      </c>
+      <c r="B49">
+        <v>18.407</v>
+      </c>
+      <c r="C49">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>0.74763661999999997</v>
+      </c>
+      <c r="B50">
+        <v>18.547000000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>0.74904883</v>
+      </c>
+      <c r="B51">
+        <v>18.497</v>
+      </c>
+      <c r="C51">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>0.75049745999999995</v>
+      </c>
+      <c r="B52">
+        <v>18.286999999999999</v>
+      </c>
+      <c r="C52">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>0.74512730999999999</v>
+      </c>
+      <c r="B53">
+        <v>18.646999999999998</v>
+      </c>
+      <c r="C53">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>0.74550925999999995</v>
+      </c>
+      <c r="B54">
+        <v>18.337</v>
+      </c>
+      <c r="C54">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>0.74582176</v>
+      </c>
+      <c r="B55">
+        <v>18.747</v>
+      </c>
+      <c r="C55">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>0.74612268999999998</v>
+      </c>
+      <c r="B56">
+        <v>18.707000000000001</v>
+      </c>
+      <c r="C56">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>0.74642361000000002</v>
+      </c>
+      <c r="B57">
+        <v>18.056999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>0.74672453999999999</v>
+      </c>
+      <c r="B58">
+        <v>18.416999999999998</v>
+      </c>
+      <c r="C58">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>0.74706019000000001</v>
+      </c>
+      <c r="B59">
+        <v>18.376999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>0.74737268999999995</v>
+      </c>
+      <c r="B60">
+        <v>18.617000000000001</v>
+      </c>
+      <c r="C60">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>0.74765046000000002</v>
+      </c>
+      <c r="B61">
+        <v>18.786999999999999</v>
+      </c>
+      <c r="C61">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>0.74791666999999995</v>
+      </c>
+      <c r="B62">
+        <v>18.497</v>
+      </c>
+      <c r="C62">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>0.74818287000000006</v>
+      </c>
+      <c r="B63">
+        <v>18.376999999999999</v>
+      </c>
+      <c r="C63">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>0.74843749999999998</v>
+      </c>
+      <c r="B64">
+        <v>18.576999999999998</v>
+      </c>
+      <c r="C64">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>0.74870369999999997</v>
+      </c>
+      <c r="B65">
+        <v>18.297000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>0.74906249999999996</v>
+      </c>
+      <c r="B66">
+        <v>18.567</v>
+      </c>
+      <c r="C66">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>0.74938656999999997</v>
+      </c>
+      <c r="B67">
+        <v>18.137</v>
+      </c>
+      <c r="C67">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>0.74965278000000002</v>
+      </c>
+      <c r="B68">
+        <v>19.117000000000001</v>
+      </c>
+      <c r="C68">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>0.74994212999999998</v>
+      </c>
+      <c r="B69">
+        <v>18.256999999999998</v>
+      </c>
+      <c r="C69">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>0.75023147999999995</v>
+      </c>
+      <c r="B70">
+        <v>18.376999999999999</v>
+      </c>
+      <c r="C70">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>0.75050925999999996</v>
+      </c>
+      <c r="B71">
+        <v>18.177</v>
+      </c>
+      <c r="C71">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>0.75077545999999995</v>
+      </c>
+      <c r="B72">
+        <v>18.457000000000001</v>
+      </c>
+      <c r="C72">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>0.75103008999999998</v>
+      </c>
+      <c r="B73">
+        <v>18.266999999999999</v>
+      </c>
+      <c r="C73">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/starting with data/excel files/their_data.xlsx
+++ b/starting with data/excel files/their_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/jy1_mail_tau_ac_il/Documents/Desktop/אוניברסיטה/אסטרו נודר/פרויקט קיץ/התחלה של קוד/astro_summer_project/starting with data/excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2100F67E-BCCD-4C3F-A82F-381B4F6417C8}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D41A92F-049E-41AB-B444-908E516A93AA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="after beaning" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="pros data all" sheetId="4" r:id="rId5"/>
     <sheet name="the graph data" sheetId="5" r:id="rId6"/>
     <sheet name="after exctintion" sheetId="7" r:id="rId7"/>
+    <sheet name="after ext binnig" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,8 +75,26 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D5313C4C-428D-4EAF-BF85-F9734153C27B}</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D5313C4C-428D-4EAF-BF85-F9734153C27B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    i took off 0.052 for extinction</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="288">
   <si>
     <t>Image number</t>
   </si>
@@ -977,7 +996,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="177"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1385,6 +1404,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B2" dT="2022-09-04T07:01:49.89" personId="{5559253F-A3C1-4F96-8B58-B9E5EC53EC9B}" id="{D5313C4C-428D-4EAF-BF85-F9734153C27B}">
+    <text>i took off 0.052 for extinction</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
@@ -1914,7 +1941,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10616,8 +10643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5FEE3E-EED2-4242-BB17-32352DA5E758}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11431,4 +11458,200 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEE5BCB-D257-4E19-8295-AF23EEBA27F3}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f>0.052</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0.69693183999999997</v>
+      </c>
+      <c r="B2">
+        <v>19.347999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0.7361548</v>
+      </c>
+      <c r="B3">
+        <v>18.978000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0.73452949000000001</v>
+      </c>
+      <c r="B4">
+        <v>19.058</v>
+      </c>
+      <c r="C4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>0.73629635999999998</v>
+      </c>
+      <c r="B5">
+        <v>18.968</v>
+      </c>
+      <c r="C5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0.73793518000000002</v>
+      </c>
+      <c r="B6">
+        <v>18.928000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>0.74201744999999997</v>
+      </c>
+      <c r="B7">
+        <v>18.768000000000001</v>
+      </c>
+      <c r="C7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0.73999994999999996</v>
+      </c>
+      <c r="B8">
+        <v>18.698</v>
+      </c>
+      <c r="C8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>0.74130099999999999</v>
+      </c>
+      <c r="B9">
+        <v>18.698</v>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>0.74262035000000004</v>
+      </c>
+      <c r="B10">
+        <v>18.738</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>0.74414860999999999</v>
+      </c>
+      <c r="B11">
+        <v>18.738</v>
+      </c>
+      <c r="C11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>0.74817347000000001</v>
+      </c>
+      <c r="B12">
+        <v>18.428000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>0.74595498999999998</v>
+      </c>
+      <c r="B13">
+        <v>18.408000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>0.74763661999999997</v>
+      </c>
+      <c r="B14">
+        <v>18.548000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>0.74904883</v>
+      </c>
+      <c r="B15">
+        <v>18.498000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>0.75049745999999995</v>
+      </c>
+      <c r="B16">
+        <v>18.288</v>
+      </c>
+      <c r="C16">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/starting with data/excel files/their_data.xlsx
+++ b/starting with data/excel files/their_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/jy1_mail_tau_ac_il/Documents/Desktop/אוניברסיטה/אסטרו נודר/פרויקט קיץ/התחלה של קוד/astro_summer_project/starting with data/excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D41A92F-049E-41AB-B444-908E516A93AA}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_46D1A390872734C6CF6958B94CB7F8EC7452E42D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B89FDB43-E43E-4408-8998-649B44ADAF8C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="after beaning" sheetId="1" r:id="rId1"/>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,12 +991,6 @@
       <color rgb="FF6897BB"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="177"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2129,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0505C6EC-8959-4512-9AB0-5FB33F120081}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2717,7 +2711,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="26.4" customHeight="1">
+    <row r="33" spans="1:10" ht="26.4" customHeight="1">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -2735,7 +2729,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="26.4" customHeight="1">
+    <row r="34" spans="1:10" ht="26.4" customHeight="1">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2753,7 +2747,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="26.4" customHeight="1">
+    <row r="35" spans="1:10" ht="26.4" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2771,7 +2765,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="26.4" customHeight="1">
+    <row r="36" spans="1:10" ht="26.4" customHeight="1">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2789,7 +2783,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="26.4" customHeight="1">
+    <row r="37" spans="1:10" ht="26.4" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2807,7 +2801,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="26.4" customHeight="1">
+    <row r="38" spans="1:10" ht="26.4" customHeight="1">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2825,7 +2819,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="26.4" customHeight="1">
+    <row r="39" spans="1:10" ht="26.4" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2843,7 +2837,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="26.4" customHeight="1">
+    <row r="40" spans="1:10" ht="26.4" customHeight="1">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2861,7 +2855,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="26.4" customHeight="1">
+    <row r="41" spans="1:10" ht="26.4" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2879,7 +2873,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="26.4" customHeight="1">
+    <row r="42" spans="1:10" ht="26.4" customHeight="1">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2899,7 +2893,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="26.4" customHeight="1">
+    <row r="43" spans="1:10" ht="26.4" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -2918,8 +2912,12 @@
       <c r="F43" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="26.4" customHeight="1">
+      <c r="J43">
+        <f>B43-B42</f>
+        <v>3.2728870000000021E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="26.4" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
@@ -2939,7 +2937,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="26.4" customHeight="1">
+    <row r="45" spans="1:10" ht="26.4" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -2959,7 +2957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="26.4" customHeight="1">
+    <row r="46" spans="1:10" ht="26.4" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -2979,7 +2977,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="26.4" customHeight="1">
+    <row r="47" spans="1:10" ht="26.4" customHeight="1">
       <c r="A47" s="2">
         <v>41</v>
       </c>
@@ -2999,7 +2997,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="26.4" customHeight="1">
+    <row r="48" spans="1:10" ht="26.4" customHeight="1">
       <c r="A48" s="2">
         <v>42</v>
       </c>
@@ -11464,8 +11462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEE5BCB-D257-4E19-8295-AF23EEBA27F3}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
